--- a/target/classes/datapool/DatosFindFlight.xlsx
+++ b/target/classes/datapool/DatosFindFlight.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nombre del elemento</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Combo box Passengers</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Combo box Departing From</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t>Combo box Day Ini</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>Combo box Arriving In</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
   </si>
   <si>
     <t>Combo box Day End</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Radio button Economy Class ó Bussiness class ó First class</t>
@@ -78,8 +87,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -162,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,6 +186,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,7 +213,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15"/>
@@ -223,7 +237,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
@@ -232,80 +246,80 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
     </row>

--- a/target/classes/datapool/DatosFindFlight.xlsx
+++ b/target/classes/datapool/DatosFindFlight.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Nombre del elemento</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Combo box Departing From</t>
@@ -210,18 +219,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.8814814814815"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.5851851851852"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.062962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="10.5296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.14814814814815"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="5.03703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.85185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="10.5296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -232,6 +243,8 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -241,6 +254,8 @@
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -249,77 +264,85 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3"/>
     </row>
